--- a/flows/NRGU_fund_flow_data.xlsx
+++ b/flows/NRGU_fund_flow_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1230"/>
+  <dimension ref="A1:B1249"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12735,6 +12735,196 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1231">
+      <c r="A1231" t="inlineStr">
+        <is>
+          <t>2024-02-22</t>
+        </is>
+      </c>
+      <c r="B1231" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1232">
+      <c r="A1232" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B1232" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="inlineStr">
+        <is>
+          <t>2024-02-26</t>
+        </is>
+      </c>
+      <c r="B1233" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1234">
+      <c r="A1234" t="inlineStr">
+        <is>
+          <t>2024-02-27</t>
+        </is>
+      </c>
+      <c r="B1234" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1235">
+      <c r="A1235" t="inlineStr">
+        <is>
+          <t>2024-02-28</t>
+        </is>
+      </c>
+      <c r="B1235" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1236">
+      <c r="A1236" t="inlineStr">
+        <is>
+          <t>2024-02-29</t>
+        </is>
+      </c>
+      <c r="B1236" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1237">
+      <c r="A1237" t="inlineStr">
+        <is>
+          <t>2024-03-01</t>
+        </is>
+      </c>
+      <c r="B1237" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1238">
+      <c r="A1238" t="inlineStr">
+        <is>
+          <t>2024-03-04</t>
+        </is>
+      </c>
+      <c r="B1238" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="inlineStr">
+        <is>
+          <t>2024-03-05</t>
+        </is>
+      </c>
+      <c r="B1239" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1240">
+      <c r="A1240" t="inlineStr">
+        <is>
+          <t>2024-03-06</t>
+        </is>
+      </c>
+      <c r="B1240" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1241">
+      <c r="A1241" t="inlineStr">
+        <is>
+          <t>2024-03-07</t>
+        </is>
+      </c>
+      <c r="B1241" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1242">
+      <c r="A1242" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="B1242" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1243">
+      <c r="A1243" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
+      <c r="B1243" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1244">
+      <c r="A1244" t="inlineStr">
+        <is>
+          <t>2024-03-12</t>
+        </is>
+      </c>
+      <c r="B1244" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1245">
+      <c r="A1245" t="inlineStr">
+        <is>
+          <t>2024-03-13</t>
+        </is>
+      </c>
+      <c r="B1245" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1246">
+      <c r="A1246" t="inlineStr">
+        <is>
+          <t>2024-03-14</t>
+        </is>
+      </c>
+      <c r="B1246" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1247">
+      <c r="A1247" t="inlineStr">
+        <is>
+          <t>2024-03-15</t>
+        </is>
+      </c>
+      <c r="B1247" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1248">
+      <c r="A1248" t="inlineStr">
+        <is>
+          <t>2024-03-18</t>
+        </is>
+      </c>
+      <c r="B1248" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1249">
+      <c r="A1249" t="inlineStr">
+        <is>
+          <t>2024-03-19</t>
+        </is>
+      </c>
+      <c r="B1249" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
